--- a/Jumia-workings-analysis.xlsx
+++ b/Jumia-workings-analysis.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Data analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Data analytics\Jumia-Product-Performance-Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A1181-E98C-4B77-9357-38412E0072A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C81BEE9-3A53-463E-831E-A38E3BCA8ECC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="958" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="1000" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Average" sheetId="10" r:id="rId1"/>
@@ -25,27 +25,30 @@
     <sheet name="By discount percentage" sheetId="21" r:id="rId10"/>
     <sheet name="By rating category" sheetId="24" r:id="rId11"/>
     <sheet name="By discount category" sheetId="25" r:id="rId12"/>
-    <sheet name="Sheet26" sheetId="27" r:id="rId13"/>
-    <sheet name="Excel_jumia" sheetId="1" r:id="rId14"/>
-    <sheet name="Dashboard" sheetId="19" r:id="rId15"/>
+    <sheet name="Price category" sheetId="27" r:id="rId13"/>
+    <sheet name="Top 5 Lowest 5" sheetId="28" r:id="rId14"/>
+    <sheet name="Comparison" sheetId="29" r:id="rId15"/>
+    <sheet name="Excel_jumia" sheetId="1" r:id="rId16"/>
+    <sheet name="Dashboard" sheetId="19" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Excel_jumia!$A$1:$F$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Excel_jumia!$A$1:$N$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Top 5 Lowest 5'!$D$3:$E$113</definedName>
     <definedName name="Slicer_Current_price_range">#N/A</definedName>
     <definedName name="Slicer_Discount_Category">#N/A</definedName>
     <definedName name="Slicer_Rating_Category">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
-    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="6" r:id="rId18"/>
+    <pivotCache cacheId="12" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId18"/>
-        <x14:slicerCache r:id="rId19"/>
         <x14:slicerCache r:id="rId20"/>
+        <x14:slicerCache r:id="rId21"/>
+        <x14:slicerCache r:id="rId22"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="158">
   <si>
     <t>Product</t>
   </si>
@@ -502,9 +505,6 @@
     <t>Average of Current price</t>
   </si>
   <si>
-    <t>Average of Review</t>
-  </si>
-  <si>
     <t>Sum of Rating</t>
   </si>
   <si>
@@ -527,6 +527,12 @@
   </si>
   <si>
     <t>Medium Priced Product</t>
+  </si>
+  <si>
+    <t>Count of Review</t>
+  </si>
+  <si>
+    <t>High-discount products generate greater customer engagement through increased reviews while low-discount products achieve slightly higher customer satisfaction as reflected in better average ratings.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +686,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +872,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1027,7 +1051,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1047,6 +1071,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1092,138 +1132,63 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$KES]\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1249,9 +1214,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1298,7 +1260,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]Product distribution!PivotTable11</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]Product distribution!PivotTable11</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1760,7 +1722,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By rating category!PivotTable19</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By rating category!PivotTable19</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2320,7 +2282,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By discount category!PivotTable20</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By discount category!PivotTable20</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3471,7 +3433,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By discount category!PivotTable20</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By discount category!PivotTable20</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -4318,7 +4280,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By no. of reviews!PivotTable17</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By no. of reviews!PivotTable17</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -5012,7 +4974,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]disc pct &amp; no. of reviews!PivotTable12</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]disc pct &amp; no. of reviews!PivotTable12</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -5459,7 +5421,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]Rating &amp; no. of reviews!PivotTable13</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]Rating &amp; no. of reviews!PivotTable13</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -5966,7 +5928,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By rating category!PivotTable19</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By rating category!PivotTable19</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -6923,7 +6885,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By discount category!PivotTable20</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By discount category!PivotTable20</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -8498,7 +8460,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By discount percentage!PivotTable18</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By discount percentage!PivotTable18</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -8935,7 +8897,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9024,7 +8986,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By rating!PivotTable16</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By rating!PivotTable16</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -9717,7 +9679,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]disc pct &amp; no. of reviews!PivotTable12</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]disc pct &amp; no. of reviews!PivotTable12</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -10128,7 +10090,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By discount category!PivotTable20</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By discount category!PivotTable20</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -11281,7 +11243,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]Product distribution!PivotTable11</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]Product distribution!PivotTable11</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -11819,7 +11781,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]Rating &amp; no. of reviews!PivotTable13</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]Rating &amp; no. of reviews!PivotTable13</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -12290,7 +12252,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]higher disc lead to increased!PivotTable14</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]higher disc lead to increased!PivotTable14</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -12706,7 +12668,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]Higher rated products tend to h!PivotTable15</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]Higher rated products tend to h!PivotTable15</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -13068,7 +13030,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By rating!PivotTable16</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By rating!PivotTable16</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -13571,7 +13533,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By no. of reviews!PivotTable17</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By no. of reviews!PivotTable17</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -14066,7 +14028,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By discount percentage!PivotTable18</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By discount percentage!PivotTable18</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -14561,7 +14523,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_jumia_Assignment.xlsx]By discount percentage!PivotTable18</c:name>
+    <c:name>[Jumia-workings-analysis.xlsx]By discount percentage!PivotTable18</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -28246,7 +28208,117 @@
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Product" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="109">
+        <s v="32PCS Portable Cordless Drill Set With Cyclic Battery Drive -26 Variable Speed"/>
+        <s v="Konka Healty Electric Kettle, 24-hour Heat Preservation,1.5L,800W, White"/>
+        <s v="Metal Wall Clock Silver Dial Crystal Jewelry Round Home Decoration Wall Clock"/>
+        <s v="LED Wall Digital Alarm Clock Study Home 12 / 24H Clock Calendar"/>
+        <s v="220V 60W Electric Soldering Iron Kits With Tools, Tips, And Multimeter"/>
+        <s v="Portable Wardrobe Nonwoven With 3 Hanging Rods And 6 Storage Shelves"/>
+        <s v="12V 19500rpm Handheld Electric Angle Grinder Tool - UK - Yellow/Black"/>
+        <s v="LASA Stainless Steel Double Wall Mount Soap Dispenser - 500ml"/>
+        <s v="137 Pieces Cake Decorating Tool Set Baking Supplies"/>
+        <s v="Large Lazy Inflatable Sofa Chairs PVC Lounger Seat Bag"/>
+        <s v="MultiFunctional Storage Rack Multi-layer Bookshelf"/>
+        <s v="Portable Mini Cordless Car Vacuum Cleaner - Blue"/>
+        <s v="5 Pieces/set Of Stainless Steel Induction Cooker Pots"/>
+        <s v="Shower Cap Wide Elastic Band Cover Reusable Bashroom Cap"/>
+        <s v="5-PCS Stainless Steel Cooking Pot Set With Steamed Slices"/>
+        <s v="LASA 3 Tier Bamboo Shoe Bench Storage Shelf"/>
+        <s v="LASA Aluminum Folding Truck Hand Cart - 68kg Max"/>
+        <s v="53 Pieces/Set Yarn Knitting Crochet Hooks With Bag - Pansies"/>
+        <s v="53Pcs/Set Yarn Knitting Crochet Hooks With Bag - Fortune Cat"/>
+        <s v="24 Grid Wall-mounted Sundries Organiser Fabric Closet Bag Storage Rack"/>
+        <s v="4pcs Bathroom/Kitchen Towel Rack,Roll Paper Holder,Towel Bars,Hook"/>
+        <s v="LED Eye Protection  Desk Lamp , Study, Reading, USB Fan - Double Pen Holder"/>
+        <s v="1/2/3 Seater Elastic Sofa Cover,Living Room/Home Decor Chair Cover-Grey"/>
+        <s v="Thickening Multipurpose Non Stick Easy To Clean Heat Resistant Spoon Pad"/>
+        <s v="52 Pieces Cake Decorating Tool Set Gift Kit Baking Supplies"/>
+        <s v="Portable Home Small Air Humidifier 3-Speed Fan - Green"/>
+        <s v="Cushion Silicone Butt Cushion Summer Ice Cushion Honeycomb Gel Cushion"/>
+        <s v="Multifunction Laser Level With Adjustment Tripod"/>
+        <s v="2 Pairs Cowhide Split Leather Work Gloves.32â„‰ Or Above Welding Gloves"/>
+        <s v="Pen Grips For Kids Pen Grip Posture Correction Tool For Kids"/>
+        <s v="Shower Nozzle Cleaning Unclogging Needle Mini Crevice Small Hole Cleaning Brush"/>
+        <s v="Foldable Overbed Table/Desk"/>
+        <s v="DIY File Folder, Office Drawer File Holder, Pen Holder, Desktop Storage Rack"/>
+        <s v="13 In 1 Home Repair Tools Box Kit Set"/>
+        <s v="Weighing Scale Digital Bathroom Body Fat Scale USB-Black"/>
+        <s v="Electric LED UV Mosquito Killer Lamp, Outdoor/Indoor Fly Killer Trap Light -USB"/>
+        <s v="Wall Mount Automatic Toothpaste Dispenser Toothbrush Holder Toothpaste Squeezer"/>
+        <s v="Wall-Mounted Toothbrush Toothpaste Holder With Multiple Slots"/>
+        <s v="Office Chair Lumbar Back Support Spine Posture Correction Pillow Car Cushion"/>
+        <s v="Portable Soap Dispenser Kitchen Detergent Press Box Kitchen Tools"/>
+        <s v="5m Waterproof Spherical LED String Lights Outdoor Ball Chain Lights Party Lighting Decoration Adjustable"/>
+        <s v="Multi-purpose Rice Drainage Basket And Fruit And Vegetable Drainage Sieve"/>
+        <s v="9pcs Gas Mask, For Painting, Dust, Formaldehyde Grinding, Polishing"/>
+        <s v="12 Litre Black Insulated Lunch Box"/>
+        <s v="Portable Wine Table With Folding Round Table"/>
+        <s v="LASA FOLDING TABLE SERVING STAND"/>
+        <s v="VIC Wireless Vacuum Cleaner Dual Use For Home And Car 120W High Power Powerful"/>
+        <s v="2PCS Ice Silk Square Cushion Cover Pillowcases - 65x65cm"/>
+        <s v="2pcs Solar Street Light Flood Light Outdoor"/>
+        <s v="Cartoon Embroidered Mini Towel Bear Cotton Wash Cloth Hand 4pcs"/>
+        <s v="60W Hot Melt Glue Sprayer - Efficient And Stable Glue Dispensing"/>
+        <s v="Memory Foam Neck Pillow Cover, With Pillow Core - 50*30cm"/>
+        <s v="LED Solar Street Light-fake Camera"/>
+        <s v="8in1 Screwdriver With LED Light"/>
+        <s v="380ML USB Rechargeable Portable Small Blenders And Juicers"/>
+        <s v="Christmas Elk Fence Yard Lawn Decorations Cute For Holidays"/>
+        <s v="3D Waterproof EVA Plastic Shower Curtain 1.8*2Mtrs"/>
+        <s v="Artificial Potted Flowers Room Decorative Flowers (2 Pieces)"/>
+        <s v="100 Pcs Crochet Hook Tool Set Knitting Hook Set With Box"/>
+        <s v="Desk Foldable Fan Adjustable Fan Strong Wind 3 Gear Usb"/>
+        <s v="12 Litre Insulated Lunch Box Grey"/>
+        <s v="Bedroom Simple Floor Hanging Clothes Rack Single Pole Hat Rack - White"/>
+        <s v="7-piece Set Of Storage Bags, Travel Storage Bags, Shoe Bags"/>
+        <s v="115  Piece Set Of Multifunctional Precision Screwdrivers"/>
+        <s v="6 Layers Steel Pipe Assembling Dustproof Storage Shoe Cabinet"/>
+        <s v="LED Romantic Spaceship Starry Sky Projector,Children's Bedroom Night Light-Blue"/>
+        <s v="Wall Clock With Hidden Safe Box"/>
+        <s v="Angle Measuring Tool Full Metal Multi Angle Measuring Tool"/>
+        <s v="Cute Christmas Fence Garden Decorations For Holiday Home"/>
+        <s v="Genebre 115 In 1 Screwdriver Repairing Tool Set For IPhone Cellphone Hand Tool"/>
+        <s v="Outdoor Portable Water Bottle With Medicine Box - 600ML - Black"/>
+        <s v="2PCS/LOT Solar LED Outdoor Intelligent Light Controlled Wall Lamp"/>
+        <s v="Christmas Fence Garden Decorations Outdoor For Holiday Home"/>
+        <s v="3PCS Rotary Scraper Thermomix For Kitchen"/>
+        <s v="Car Phone Charging Stand"/>
+        <s v="Multifunctional Hanging Storage Box Storage Bag (4 Layers)"/>
+        <s v="Balloon Insert, Birthday Party Balloon Set, PU Leather"/>
+        <s v="40cm Gold DIY Acrylic Wall Sticker Clock"/>
+        <s v="Metal Decorative Hooks Key Hangers Entryway Wall Hooks Towel Hooks - Home"/>
+        <s v="Baby Early Education Shape And Color Cognitive Training Toys"/>
+        <s v="Wrought Iron Bathroom Shelf Wall Mounted Free Punch Toilet Rack"/>
+        <s v="LASA Digital Thermometer And Hydrometer"/>
+        <s v="Simple Metal Dog Art Sculpture Decoration For Home Office"/>
+        <s v="4M Float Switch Water Level Controller -Water Tank"/>
+        <s v="Mythco 120COB Solar Wall Ligt With Motion Sensor And Remote Control 3 Modes"/>
+        <s v="Wall-mounted Sticker Punch-free Plug Fixer"/>
+        <s v="120W Cordless Vacuum Cleaners Handheld Electric Vacuum Cleaner"/>
+        <s v="Electronic Digital Display Vernier Caliper"/>
+        <s v="Punch-free Great Load Bearing Bathroom Storage Rack Wall Shelf-White"/>
+        <s v="Agapeon Toothbrush Holder And Toothpaste Dispenser"/>
+        <s v="Watercolour Gold Foil Textured Print Pillow Cover"/>
+        <s v="Anti-Skid Absorbent Insulation Coaster  For Home Office"/>
+        <s v="Household Pineapple Peeler Peeler"/>
+        <s v="Intelligent  LED Body Sensor Wireless Lighting Night Light USB"/>
+        <s v="Brush &amp; Paintbrush Cleaning Tool Pink"/>
+        <s v="Pilates Cloth Bag Waterproof Durable High Capacity Purple"/>
+        <s v="Cartoon Car Decoration Cute Individuality For Car Home Desk"/>
+        <s v="4 Piece Coloured Stainless Steel Kitchenware Set"/>
+        <s v="Modern Sofa Throw Pillow Cover-45x45cm-Blue&amp;Red"/>
+        <s v="7PCS Silicone Thumb Knife Finger Protector Vegetable Harvesting Knife"/>
+        <s v="6 In 1 Bottle Can Opener Multifunctional Easy Opener"/>
+        <s v="Creative Owl Shape Keychain Black"/>
+        <s v="1PC Refrigerator Food Seal Pocket Fridge Bags"/>
+        <s v="Peacock  Throw Pillow Cushion Case For Home Car"/>
+        <s v="Exfoliate And Exfoliate Face Towel - Black"/>
+        <s v="Classic Black Cat Cotton Hemp Pillow Case For Home Car"/>
+        <s v="Black Simple Water Cup Wine Coaster Anti Slip Absorbent"/>
+        <s v="Sewing Machine Needle Threader Stitch Insertion Tool Automatic Quick Sewing"/>
+        <s v="3PCS Single Head Knitting Crochet Sweater Needle Set"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Current price" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="38" maxValue="3750"/>
@@ -28261,7 +28333,31 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="69"/>
     </cacheField>
     <cacheField name="Rating" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="2" maxValue="5"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="2" maxValue="5" count="23">
+        <n v="3"/>
+        <n v="5"/>
+        <s v="Not Provided"/>
+        <n v="4.5999999999999996"/>
+        <n v="4"/>
+        <n v="3.8"/>
+        <n v="2.5"/>
+        <n v="2.1"/>
+        <n v="4.3"/>
+        <n v="4.5"/>
+        <n v="4.7"/>
+        <n v="4.0999999999999996"/>
+        <n v="4.8"/>
+        <n v="4.2"/>
+        <n v="4.4000000000000004"/>
+        <n v="2.9"/>
+        <n v="2.2999999999999998"/>
+        <n v="2.2000000000000002"/>
+        <n v="2"/>
+        <n v="2.8"/>
+        <n v="2.6"/>
+        <n v="2.7"/>
+        <n v="3.3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Discount Amount (KSh)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="2585"/>
@@ -28270,7 +28366,11 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Discount Category" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="Medium Discount"/>
+        <s v="Low Discount"/>
+        <s v="High Discount"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Current price range" numFmtId="0">
       <sharedItems count="3">
@@ -29495,1318 +29595,1318 @@
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="109">
   <r>
-    <s v="32PCS Portable Cordless Drill Set With Cyclic Battery Drive -26 Variable Speed"/>
+    <x v="0"/>
     <n v="3750"/>
     <n v="6143"/>
     <n v="0.38954908025394758"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="0"/>
     <n v="2393"/>
     <s v="Average Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Konka Healty Electric Kettle, 24-hour Heat Preservation,1.5L,800W, White"/>
+    <x v="1"/>
     <n v="3640"/>
     <n v="4588"/>
     <n v="0.20662598081952921"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="948"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Metal Wall Clock Silver Dial Crystal Jewelry Round Home Decoration Wall Clock"/>
+    <x v="2"/>
     <n v="3546"/>
     <n v="3699"/>
     <n v="4.1362530413625302E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="153"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="LED Wall Digital Alarm Clock Study Home 12 / 24H Clock Calendar"/>
+    <x v="3"/>
     <n v="2999"/>
     <n v="3699"/>
     <n v="0.18924033522573669"/>
     <n v="5"/>
-    <n v="4.5999999999999996"/>
+    <x v="3"/>
     <n v="700"/>
     <s v="Excellent Rating"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="220V 60W Electric Soldering Iron Kits With Tools, Tips, And Multimeter"/>
+    <x v="4"/>
     <n v="2999"/>
     <n v="3290"/>
     <n v="8.8449848024316116E-2"/>
     <n v="15"/>
-    <n v="4"/>
+    <x v="4"/>
     <n v="291"/>
     <s v="Average Rating"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Portable Wardrobe Nonwoven With 3 Hanging Rods And 6 Storage Shelves"/>
+    <x v="5"/>
     <n v="2880"/>
     <n v="3520"/>
     <n v="0.18181818181818182"/>
     <n v="12"/>
-    <n v="3.8"/>
+    <x v="5"/>
     <n v="640"/>
     <s v="Average Rating"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="12V 19500rpm Handheld Electric Angle Grinder Tool - UK - Yellow/Black"/>
+    <x v="6"/>
     <n v="2799"/>
     <n v="3810"/>
     <n v="0.26535433070866143"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="1011"/>
     <s v="N/A"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="LASA Stainless Steel Double Wall Mount Soap Dispenser - 500ml"/>
+    <x v="7"/>
     <n v="2750"/>
     <n v="4471"/>
     <n v="0.38492507269067322"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="1721"/>
     <s v="N/A"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="137 Pieces Cake Decorating Tool Set Baking Supplies"/>
+    <x v="8"/>
     <n v="2319"/>
     <n v="3032"/>
     <n v="0.23515831134564644"/>
     <n v="55"/>
-    <n v="4.5999999999999996"/>
+    <x v="3"/>
     <n v="713"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Large Lazy Inflatable Sofa Chairs PVC Lounger Seat Bag"/>
+    <x v="9"/>
     <n v="2300"/>
     <n v="3240"/>
     <n v="0.29012345679012347"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="0"/>
     <n v="940"/>
     <s v="Average Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="MultiFunctional Storage Rack Multi-layer Bookshelf"/>
+    <x v="10"/>
     <n v="2200"/>
     <n v="4080"/>
     <n v="0.46078431372549017"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="1880"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Portable Mini Cordless Car Vacuum Cleaner - Blue"/>
+    <x v="11"/>
     <n v="2199"/>
     <n v="2923"/>
     <n v="0.24769072870338693"/>
     <n v="24"/>
-    <n v="4.5999999999999996"/>
+    <x v="3"/>
     <n v="724"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="5 Pieces/set Of Stainless Steel Induction Cooker Pots"/>
+    <x v="12"/>
     <n v="2170"/>
     <n v="2500"/>
     <n v="0.13200000000000001"/>
     <n v="6"/>
-    <n v="2.5"/>
+    <x v="6"/>
     <n v="330"/>
     <s v="Poor Rating"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Shower Cap Wide Elastic Band Cover Reusable Bashroom Cap"/>
+    <x v="13"/>
     <n v="2132"/>
     <n v="2169"/>
     <n v="1.705855232826187E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="37"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="5-PCS Stainless Steel Cooking Pot Set With Steamed Slices"/>
+    <x v="14"/>
     <n v="2115"/>
     <n v="4700"/>
     <n v="0.55000000000000004"/>
     <n v="13"/>
-    <n v="2.1"/>
+    <x v="7"/>
     <n v="2585"/>
     <s v="Poor Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="LASA 3 Tier Bamboo Shoe Bench Storage Shelf"/>
+    <x v="15"/>
     <n v="2048"/>
     <n v="4500"/>
     <n v="0.54488888888888887"/>
     <n v="7"/>
-    <n v="4.3"/>
+    <x v="8"/>
     <n v="2452"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="LASA Aluminum Folding Truck Hand Cart - 68kg Max"/>
+    <x v="16"/>
     <n v="2025"/>
     <n v="3971"/>
     <n v="0.49005288340468395"/>
     <n v="3"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1946"/>
     <s v="Excellent Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="53 Pieces/Set Yarn Knitting Crochet Hooks With Bag - Pansies"/>
+    <x v="17"/>
     <n v="1980"/>
     <n v="2699"/>
     <n v="0.26639496109670247"/>
     <n v="32"/>
-    <n v="4.5"/>
+    <x v="9"/>
     <n v="719"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="53Pcs/Set Yarn Knitting Crochet Hooks With Bag - Fortune Cat"/>
+    <x v="18"/>
     <n v="1940"/>
     <n v="2650"/>
     <n v="0.26792452830188679"/>
     <n v="20"/>
-    <n v="4.7"/>
+    <x v="10"/>
     <n v="710"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="24 Grid Wall-mounted Sundries Organiser Fabric Closet Bag Storage Rack"/>
+    <x v="19"/>
     <n v="1875"/>
     <n v="1899"/>
     <n v="1.2638230647709321E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="24"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="4pcs Bathroom/Kitchen Towel Rack,Roll Paper Holder,Towel Bars,Hook"/>
+    <x v="20"/>
     <n v="1860"/>
     <n v="3220"/>
     <n v="0.42236024844720499"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="1360"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="LED Eye Protection  Desk Lamp , Study, Reading, USB Fan - Double Pen Holder"/>
+    <x v="21"/>
     <n v="1820"/>
     <n v="3490"/>
     <n v="0.47851002865329512"/>
     <n v="9"/>
-    <n v="4.3"/>
+    <x v="8"/>
     <n v="1670"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="1/2/3 Seater Elastic Sofa Cover,Living Room/Home Decor Chair Cover-Grey"/>
+    <x v="22"/>
     <n v="1800"/>
     <n v="2700"/>
     <n v="0.33333333333333331"/>
     <n v="2"/>
-    <n v="4.5"/>
+    <x v="9"/>
     <n v="900"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Thickening Multipurpose Non Stick Easy To Clean Heat Resistant Spoon Pad"/>
+    <x v="23"/>
     <n v="1768"/>
     <n v="1799"/>
     <n v="1.7231795441912175E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="31"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="52 Pieces Cake Decorating Tool Set Gift Kit Baking Supplies"/>
+    <x v="24"/>
     <n v="1758"/>
     <n v="2499"/>
     <n v="0.2965186074429772"/>
     <n v="20"/>
-    <n v="4.0999999999999996"/>
+    <x v="11"/>
     <n v="741"/>
     <s v="Average Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Portable Home Small Air Humidifier 3-Speed Fan - Green"/>
+    <x v="25"/>
     <n v="1740"/>
     <n v="2356"/>
     <n v="0.26146010186757218"/>
     <n v="5"/>
-    <n v="4.8"/>
+    <x v="12"/>
     <n v="616"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Cushion Silicone Butt Cushion Summer Ice Cushion Honeycomb Gel Cushion"/>
+    <x v="26"/>
     <n v="1732"/>
     <n v="1799"/>
     <n v="3.7242912729294052E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="67"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Multifunction Laser Level With Adjustment Tripod"/>
+    <x v="27"/>
     <n v="1680"/>
     <n v="2499"/>
     <n v="0.32773109243697479"/>
     <n v="9"/>
-    <n v="4.2"/>
+    <x v="13"/>
     <n v="819"/>
     <s v="Average Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="2 Pairs Cowhide Split Leather Work Gloves.32â„‰ Or Above Welding Gloves"/>
+    <x v="28"/>
     <n v="1666"/>
     <n v="1699"/>
     <n v="1.9423190111830489E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="33"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Pen Grips For Kids Pen Grip Posture Correction Tool For Kids"/>
+    <x v="29"/>
     <n v="1660"/>
     <n v="1699"/>
     <n v="2.2954679223072396E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="39"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Shower Nozzle Cleaning Unclogging Needle Mini Crevice Small Hole Cleaning Brush"/>
+    <x v="30"/>
     <n v="1658"/>
     <n v="1699"/>
     <n v="2.4131842260153032E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="41"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Foldable Overbed Table/Desk"/>
+    <x v="31"/>
     <n v="1650"/>
     <n v="2150"/>
     <n v="0.23255813953488372"/>
     <n v="14"/>
-    <n v="4.4000000000000004"/>
+    <x v="14"/>
     <n v="500"/>
     <s v="Average Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="DIY File Folder, Office Drawer File Holder, Pen Holder, Desktop Storage Rack"/>
+    <x v="32"/>
     <n v="1620"/>
     <n v="2690"/>
     <n v="0.39776951672862454"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1070"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="13 In 1 Home Repair Tools Box Kit Set"/>
+    <x v="33"/>
     <n v="1600"/>
     <n v="2929"/>
     <n v="0.45373847729600547"/>
     <n v="5"/>
-    <n v="3.8"/>
+    <x v="5"/>
     <n v="1329"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Weighing Scale Digital Bathroom Body Fat Scale USB-Black"/>
+    <x v="34"/>
     <n v="1580"/>
     <n v="2499"/>
     <n v="0.36774709883953582"/>
     <n v="7"/>
-    <n v="4.7"/>
+    <x v="10"/>
     <n v="919"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Electric LED UV Mosquito Killer Lamp, Outdoor/Indoor Fly Killer Trap Light -USB"/>
+    <x v="35"/>
     <n v="1570"/>
     <n v="2988"/>
     <n v="0.4745649263721553"/>
     <n v="7"/>
-    <n v="2.1"/>
+    <x v="7"/>
     <n v="1418"/>
     <s v="Poor Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Wall Mount Automatic Toothpaste Dispenser Toothbrush Holder Toothpaste Squeezer"/>
+    <x v="36"/>
     <n v="1526"/>
     <n v="1660"/>
     <n v="8.0722891566265054E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="134"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Wall-Mounted Toothbrush Toothpaste Holder With Multiple Slots"/>
+    <x v="37"/>
     <n v="1468"/>
     <n v="1699"/>
     <n v="0.13596233078281342"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="231"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Office Chair Lumbar Back Support Spine Posture Correction Pillow Car Cushion"/>
+    <x v="38"/>
     <n v="1466"/>
     <n v="1699"/>
     <n v="0.13713949381989404"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="233"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Portable Soap Dispenser Kitchen Detergent Press Box Kitchen Tools"/>
+    <x v="39"/>
     <n v="1462"/>
     <n v="1499"/>
     <n v="2.46831220813876E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="37"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="5m Waterproof Spherical LED String Lights Outdoor Ball Chain Lights Party Lighting Decoration Adjustable"/>
+    <x v="40"/>
     <n v="1460"/>
     <n v="2290"/>
     <n v="0.36244541484716158"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="830"/>
     <s v="N/A"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Multi-purpose Rice Drainage Basket And Fruit And Vegetable Drainage Sieve"/>
+    <x v="41"/>
     <n v="1459"/>
     <n v="1499"/>
     <n v="2.6684456304202801E-2"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="40"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="9pcs Gas Mask, For Painting, Dust, Formaldehyde Grinding, Polishing"/>
+    <x v="42"/>
     <n v="1420"/>
     <n v="2420"/>
     <n v="0.41322314049586778"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="1000"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="12 Litre Black Insulated Lunch Box"/>
+    <x v="43"/>
     <n v="1350"/>
     <n v="1990"/>
     <n v="0.32160804020100503"/>
     <n v="13"/>
-    <n v="3.8"/>
+    <x v="5"/>
     <n v="640"/>
     <s v="Average Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Portable Wine Table With Folding Round Table"/>
+    <x v="44"/>
     <n v="1300"/>
     <n v="2500"/>
     <n v="0.48"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="1200"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="LASA FOLDING TABLE SERVING STAND"/>
+    <x v="45"/>
     <n v="1274"/>
     <n v="2800"/>
     <n v="0.54500000000000004"/>
     <n v="5"/>
-    <n v="4.8"/>
+    <x v="12"/>
     <n v="1526"/>
     <s v="Excellent Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="VIC Wireless Vacuum Cleaner Dual Use For Home And Car 120W High Power Powerful"/>
+    <x v="46"/>
     <n v="1220"/>
     <n v="1555"/>
     <n v="0.21543408360128619"/>
     <n v="16"/>
-    <n v="2.9"/>
+    <x v="15"/>
     <n v="335"/>
     <s v="Poor Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="2PCS Ice Silk Square Cushion Cover Pillowcases - 65x65cm"/>
+    <x v="47"/>
     <n v="1200"/>
     <n v="2400"/>
     <n v="0.5"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="1200"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="2pcs Solar Street Light Flood Light Outdoor"/>
+    <x v="48"/>
     <n v="1200"/>
     <n v="1950"/>
     <n v="0.38461538461538464"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="750"/>
     <s v="N/A"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Cartoon Embroidered Mini Towel Bear Cotton Wash Cloth Hand 4pcs"/>
+    <x v="49"/>
     <n v="1190"/>
     <n v="1810"/>
     <n v="0.34254143646408841"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="620"/>
     <s v="N/A"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="60W Hot Melt Glue Sprayer - Efficient And Stable Glue Dispensing"/>
+    <x v="50"/>
     <n v="1190"/>
     <n v="1785"/>
     <n v="0.33333333333333331"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="595"/>
     <s v="N/A"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Memory Foam Neck Pillow Cover, With Pillow Core - 50*30cm"/>
+    <x v="51"/>
     <n v="1189"/>
     <n v="2199"/>
     <n v="0.45929968167348795"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="0"/>
     <n v="1010"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="LED Solar Street Light-fake Camera"/>
+    <x v="52"/>
     <n v="1150"/>
     <n v="1737"/>
     <n v="0.3379389752446747"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="587"/>
     <s v="N/A"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="8in1 Screwdriver With LED Light"/>
+    <x v="53"/>
     <n v="1080"/>
     <n v="1874"/>
     <n v="0.42369263607257202"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="794"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="380ML USB Rechargeable Portable Small Blenders And Juicers"/>
+    <x v="54"/>
     <n v="1000"/>
     <n v="2000"/>
     <n v="0.5"/>
     <n v="7"/>
-    <n v="2.2999999999999998"/>
+    <x v="16"/>
     <n v="1000"/>
     <s v="Poor Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Christmas Elk Fence Yard Lawn Decorations Cute For Holidays"/>
+    <x v="55"/>
     <n v="999"/>
     <n v="2000"/>
     <n v="0.50049999999999994"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="1001"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="3D Waterproof EVA Plastic Shower Curtain 1.8*2Mtrs"/>
+    <x v="56"/>
     <n v="998"/>
     <n v="1966"/>
     <n v="0.49237029501525942"/>
     <n v="44"/>
-    <n v="4.5999999999999996"/>
+    <x v="3"/>
     <n v="968"/>
     <s v="Excellent Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Artificial Potted Flowers Room Decorative Flowers (2 Pieces)"/>
+    <x v="57"/>
     <n v="990"/>
     <n v="1814"/>
     <n v="0.45424476295479604"/>
     <n v="6"/>
-    <n v="2.2000000000000002"/>
+    <x v="17"/>
     <n v="824"/>
     <s v="Poor Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="100 Pcs Crochet Hook Tool Set Knitting Hook Set With Box"/>
+    <x v="58"/>
     <n v="990"/>
     <n v="1500"/>
     <n v="0.34"/>
     <n v="39"/>
-    <n v="4.7"/>
+    <x v="10"/>
     <n v="510"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Desk Foldable Fan Adjustable Fan Strong Wind 3 Gear Usb"/>
+    <x v="59"/>
     <n v="988"/>
     <n v="1580"/>
     <n v="0.37468354430379747"/>
     <n v="2"/>
-    <n v="4"/>
+    <x v="4"/>
     <n v="592"/>
     <s v="Average Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="12 Litre Insulated Lunch Box Grey"/>
+    <x v="60"/>
     <n v="980"/>
     <n v="1490"/>
     <n v="0.34228187919463088"/>
     <n v="12"/>
-    <n v="4.7"/>
+    <x v="10"/>
     <n v="510"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Bedroom Simple Floor Hanging Clothes Rack Single Pole Hat Rack - White"/>
+    <x v="61"/>
     <n v="979"/>
     <n v="1920"/>
     <n v="0.49010416666666667"/>
     <n v="1"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="941"/>
     <s v="Excellent Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="7-piece Set Of Storage Bags, Travel Storage Bags, Shoe Bags"/>
+    <x v="62"/>
     <n v="968"/>
     <n v="1814"/>
     <n v="0.46637265711135611"/>
     <n v="6"/>
-    <n v="2.2000000000000002"/>
+    <x v="17"/>
     <n v="846"/>
     <s v="Poor Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="115  Piece Set Of Multifunctional Precision Screwdrivers"/>
+    <x v="63"/>
     <n v="950"/>
     <n v="1525"/>
     <n v="0.37704918032786883"/>
     <n v="2"/>
-    <n v="4.5"/>
+    <x v="9"/>
     <n v="575"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="6 Layers Steel Pipe Assembling Dustproof Storage Shoe Cabinet"/>
+    <x v="64"/>
     <n v="899"/>
     <n v="1699"/>
     <n v="0.47086521483225424"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="800"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="LED Romantic Spaceship Starry Sky Projector,Children's Bedroom Night Light-Blue"/>
+    <x v="65"/>
     <n v="880"/>
     <n v="1350"/>
     <n v="0.34814814814814815"/>
     <n v="6"/>
-    <n v="4"/>
+    <x v="4"/>
     <n v="470"/>
     <s v="Average Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Wall Clock With Hidden Safe Box"/>
+    <x v="66"/>
     <n v="850"/>
     <n v="1700"/>
     <n v="0.5"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="850"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Angle Measuring Tool Full Metal Multi Angle Measuring Tool"/>
+    <x v="67"/>
     <n v="799"/>
     <n v="1567"/>
     <n v="0.49010848755583919"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="768"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Cute Christmas Fence Garden Decorations For Holiday Home"/>
+    <x v="68"/>
     <n v="799"/>
     <n v="1343"/>
     <n v="0.4050632911392405"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="544"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Genebre 115 In 1 Screwdriver Repairing Tool Set For IPhone Cellphone Hand Tool"/>
+    <x v="69"/>
     <n v="799"/>
     <n v="999"/>
     <n v="0.20020020020020021"/>
     <n v="12"/>
-    <n v="4.0999999999999996"/>
+    <x v="11"/>
     <n v="200"/>
     <s v="Average Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Outdoor Portable Water Bottle With Medicine Box - 600ML - Black"/>
+    <x v="70"/>
     <n v="799"/>
     <n v="900"/>
     <n v="0.11222222222222222"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="101"/>
     <s v="N/A"/>
-    <s v="Low Discount"/>
+    <x v="1"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="2PCS/LOT Solar LED Outdoor Intelligent Light Controlled Wall Lamp"/>
+    <x v="71"/>
     <n v="790"/>
     <n v="1485"/>
     <n v="0.46801346801346799"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="695"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Christmas Fence Garden Decorations Outdoor For Holiday Home"/>
+    <x v="72"/>
     <n v="699"/>
     <n v="1343"/>
     <n v="0.47952345495160087"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="644"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="3PCS Rotary Scraper Thermomix For Kitchen"/>
+    <x v="73"/>
     <n v="690"/>
     <n v="1200"/>
     <n v="0.42499999999999999"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="510"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Car Phone Charging Stand"/>
+    <x v="74"/>
     <n v="671"/>
     <n v="1316"/>
     <n v="0.49012158054711247"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="645"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Multifunctional Hanging Storage Box Storage Bag (4 Layers)"/>
+    <x v="75"/>
     <n v="630"/>
     <n v="1100"/>
     <n v="0.42727272727272725"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="470"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Balloon Insert, Birthday Party Balloon Set, PU Leather"/>
+    <x v="76"/>
     <n v="610"/>
     <n v="1060"/>
     <n v="0.42452830188679247"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="450"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="40cm Gold DIY Acrylic Wall Sticker Clock"/>
+    <x v="77"/>
     <n v="552"/>
     <n v="1035"/>
     <n v="0.46666666666666667"/>
     <n v="12"/>
-    <n v="4.8"/>
+    <x v="12"/>
     <n v="483"/>
     <s v="Excellent Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Metal Decorative Hooks Key Hangers Entryway Wall Hooks Towel Hooks - Home"/>
+    <x v="78"/>
     <n v="527"/>
     <n v="999"/>
     <n v="0.47247247247247248"/>
     <n v="14"/>
-    <n v="4.0999999999999996"/>
+    <x v="11"/>
     <n v="472"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Baby Early Education Shape And Color Cognitive Training Toys"/>
+    <x v="79"/>
     <n v="525"/>
     <n v="1029"/>
     <n v="0.48979591836734693"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="504"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Wrought Iron Bathroom Shelf Wall Mounted Free Punch Toilet Rack"/>
+    <x v="80"/>
     <n v="509"/>
     <n v="899"/>
     <n v="0.43381535038932145"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="0"/>
     <n v="390"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="LASA Digital Thermometer And Hydrometer"/>
+    <x v="81"/>
     <n v="501"/>
     <n v="860"/>
     <n v="0.41744186046511628"/>
     <n v="6"/>
-    <n v="4.5"/>
+    <x v="9"/>
     <n v="359"/>
     <s v="Excellent Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Simple Metal Dog Art Sculpture Decoration For Home Office"/>
+    <x v="82"/>
     <n v="499"/>
     <n v="900"/>
     <n v="0.44555555555555554"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="401"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="4M Float Switch Water Level Controller -Water Tank"/>
+    <x v="83"/>
     <n v="475"/>
     <n v="931"/>
     <n v="0.48979591836734693"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="456"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Mythco 120COB Solar Wall Ligt With Motion Sensor And Remote Control 3 Modes"/>
+    <x v="84"/>
     <n v="458"/>
     <n v="986"/>
     <n v="0.53549695740365111"/>
     <n v="10"/>
-    <n v="3"/>
+    <x v="0"/>
     <n v="528"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Wall-mounted Sticker Punch-free Plug Fixer"/>
+    <x v="85"/>
     <n v="450"/>
     <n v="900"/>
     <n v="0.5"/>
     <n v="1"/>
-    <n v="2"/>
+    <x v="18"/>
     <n v="450"/>
     <s v="Poor Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="120W Cordless Vacuum Cleaners Handheld Electric Vacuum Cleaner"/>
+    <x v="86"/>
     <n v="445"/>
     <n v="873"/>
     <n v="0.49026345933562426"/>
     <n v="69"/>
-    <n v="2.8"/>
+    <x v="19"/>
     <n v="428"/>
     <s v="Poor Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Electronic Digital Display Vernier Caliper"/>
+    <x v="87"/>
     <n v="420"/>
     <n v="647"/>
     <n v="0.3508500772797527"/>
     <n v="49"/>
-    <n v="4.5999999999999996"/>
+    <x v="3"/>
     <n v="227"/>
     <s v="Excellent Rating"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Punch-free Great Load Bearing Bathroom Storage Rack Wall Shelf-White"/>
+    <x v="88"/>
     <n v="389"/>
     <n v="656"/>
     <n v="0.40701219512195119"/>
     <n v="36"/>
-    <n v="4.3"/>
+    <x v="8"/>
     <n v="267"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Agapeon Toothbrush Holder And Toothpaste Dispenser"/>
+    <x v="89"/>
     <n v="382"/>
     <n v="700"/>
     <n v="0.45428571428571429"/>
     <n v="17"/>
-    <n v="2.6"/>
+    <x v="20"/>
     <n v="318"/>
     <s v="Poor Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Watercolour Gold Foil Textured Print Pillow Cover"/>
+    <x v="90"/>
     <n v="345"/>
     <n v="602"/>
     <n v="0.42691029900332228"/>
     <n v="6"/>
-    <n v="2.2999999999999998"/>
+    <x v="16"/>
     <n v="257"/>
     <s v="Poor Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Anti-Skid Absorbent Insulation Coaster  For Home Office"/>
+    <x v="91"/>
     <n v="332"/>
     <n v="684"/>
     <n v="0.51461988304093564"/>
     <n v="2"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="352"/>
     <s v="Excellent Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Household Pineapple Peeler Peeler"/>
+    <x v="92"/>
     <n v="330"/>
     <n v="647"/>
     <n v="0.48995363214837712"/>
     <n v="1"/>
-    <n v="4"/>
+    <x v="4"/>
     <n v="317"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Intelligent  LED Body Sensor Wireless Lighting Night Light USB"/>
+    <x v="93"/>
     <n v="325"/>
     <n v="680"/>
     <n v="0.5220588235294118"/>
     <n v="15"/>
-    <n v="2.7"/>
+    <x v="21"/>
     <n v="355"/>
     <s v="Poor Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Brush &amp; Paintbrush Cleaning Tool Pink"/>
+    <x v="94"/>
     <n v="299"/>
     <n v="600"/>
     <n v="0.50166666666666671"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="301"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Pilates Cloth Bag Waterproof Durable High Capacity Purple"/>
+    <x v="95"/>
     <n v="299"/>
     <n v="384"/>
     <n v="0.22135416666666666"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="85"/>
     <s v="N/A"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Cartoon Car Decoration Cute Individuality For Car Home Desk"/>
+    <x v="96"/>
     <n v="274"/>
     <n v="537"/>
     <n v="0.48975791433891991"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="263"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="4 Piece Coloured Stainless Steel Kitchenware Set"/>
+    <x v="97"/>
     <n v="248"/>
     <n v="486"/>
     <n v="0.48971193415637859"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="238"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Modern Sofa Throw Pillow Cover-45x45cm-Blue&amp;Red"/>
+    <x v="98"/>
     <n v="238"/>
     <n v="476"/>
     <n v="0.5"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="238"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="7PCS Silicone Thumb Knife Finger Protector Vegetable Harvesting Knife"/>
+    <x v="99"/>
     <n v="230"/>
     <n v="450"/>
     <n v="0.48888888888888887"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="220"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="6 In 1 Bottle Can Opener Multifunctional Easy Opener"/>
+    <x v="100"/>
     <n v="199"/>
     <n v="553"/>
     <n v="0.64014466546112114"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="354"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Creative Owl Shape Keychain Black"/>
+    <x v="101"/>
     <n v="199"/>
     <n v="504"/>
     <n v="0.60515873015873012"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="305"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="1PC Refrigerator Food Seal Pocket Fridge Bags"/>
+    <x v="102"/>
     <n v="198"/>
     <n v="260"/>
     <n v="0.23846153846153847"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="62"/>
     <s v="N/A"/>
-    <s v="Medium Discount"/>
+    <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Peacock  Throw Pillow Cushion Case For Home Car"/>
+    <x v="103"/>
     <n v="195"/>
     <n v="360"/>
     <n v="0.45833333333333331"/>
     <n v="2"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="165"/>
     <s v="Excellent Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Exfoliate And Exfoliate Face Towel - Black"/>
+    <x v="104"/>
     <n v="185"/>
     <n v="382"/>
     <n v="0.51570680628272247"/>
     <n v="9"/>
-    <n v="4.3"/>
+    <x v="8"/>
     <n v="197"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Classic Black Cat Cotton Hemp Pillow Case For Home Car"/>
+    <x v="105"/>
     <n v="171"/>
     <n v="360"/>
     <n v="0.52500000000000002"/>
     <n v="2"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="189"/>
     <s v="Excellent Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Black Simple Water Cup Wine Coaster Anti Slip Absorbent"/>
+    <x v="106"/>
     <n v="169"/>
     <n v="320"/>
     <n v="0.47187499999999999"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="151"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Sewing Machine Needle Threader Stitch Insertion Tool Automatic Quick Sewing"/>
+    <x v="107"/>
     <n v="105"/>
     <n v="200"/>
     <n v="0.47499999999999998"/>
     <n v="0"/>
-    <s v="Not Provided"/>
+    <x v="2"/>
     <n v="95"/>
     <s v="N/A"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="3PCS Single Head Knitting Crochet Sweater Needle Set"/>
+    <x v="108"/>
     <n v="38"/>
     <n v="80"/>
     <n v="0.52500000000000002"/>
     <n v="13"/>
-    <n v="3.3"/>
+    <x v="22"/>
     <n v="42"/>
     <s v="Average Rating"/>
-    <s v="High Discount"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -30861,7 +30961,7 @@
     <dataField name="Average of Rating" fld="5" subtotal="average" baseField="0" baseItem="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="56">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -30870,7 +30970,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -30879,7 +30979,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -30902,7 +31002,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable18" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -31097,7 +31197,7 @@
     <dataField name="Max of Discount" fld="3" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="49">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="10">
@@ -31176,7 +31276,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable19" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -31359,7 +31459,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0B00-000000000000}" name="PivotTable20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0B00-000000000000}" name="PivotTable20" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -31789,7 +31889,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable22" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable22" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -31845,9 +31945,631 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{238CD1F5-343B-498C-9C90-D08649784374}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="110">
+        <item x="22"/>
+        <item x="58"/>
+        <item x="63"/>
+        <item x="43"/>
+        <item x="60"/>
+        <item x="86"/>
+        <item x="6"/>
+        <item x="33"/>
+        <item x="8"/>
+        <item x="102"/>
+        <item x="28"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="71"/>
+        <item x="0"/>
+        <item x="54"/>
+        <item x="56"/>
+        <item x="73"/>
+        <item x="108"/>
+        <item x="97"/>
+        <item x="77"/>
+        <item x="83"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="24"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="100"/>
+        <item x="64"/>
+        <item x="50"/>
+        <item x="99"/>
+        <item x="62"/>
+        <item x="53"/>
+        <item x="42"/>
+        <item x="89"/>
+        <item x="67"/>
+        <item x="91"/>
+        <item x="57"/>
+        <item x="79"/>
+        <item x="76"/>
+        <item x="61"/>
+        <item x="106"/>
+        <item x="94"/>
+        <item x="74"/>
+        <item x="96"/>
+        <item x="49"/>
+        <item x="55"/>
+        <item x="72"/>
+        <item x="105"/>
+        <item x="101"/>
+        <item x="26"/>
+        <item x="68"/>
+        <item x="59"/>
+        <item x="32"/>
+        <item x="35"/>
+        <item x="87"/>
+        <item x="104"/>
+        <item x="31"/>
+        <item x="69"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="81"/>
+        <item x="45"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="65"/>
+        <item x="52"/>
+        <item x="3"/>
+        <item x="51"/>
+        <item x="78"/>
+        <item x="2"/>
+        <item x="98"/>
+        <item x="27"/>
+        <item x="75"/>
+        <item x="10"/>
+        <item x="41"/>
+        <item x="84"/>
+        <item x="38"/>
+        <item x="70"/>
+        <item x="103"/>
+        <item x="29"/>
+        <item x="95"/>
+        <item x="25"/>
+        <item x="11"/>
+        <item x="39"/>
+        <item x="5"/>
+        <item x="44"/>
+        <item x="88"/>
+        <item x="107"/>
+        <item x="13"/>
+        <item x="30"/>
+        <item x="82"/>
+        <item x="23"/>
+        <item x="46"/>
+        <item x="66"/>
+        <item x="36"/>
+        <item x="85"/>
+        <item x="37"/>
+        <item x="90"/>
+        <item x="34"/>
+        <item x="80"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="110">
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Rating" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="7">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="6">
+            <x v="40"/>
+            <x v="44"/>
+            <x v="52"/>
+            <x v="65"/>
+            <x v="68"/>
+            <x v="87"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="5">
+            <x v="30"/>
+            <x v="35"/>
+            <x v="41"/>
+            <x v="58"/>
+            <x v="106"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="5">
+            <x v="30"/>
+            <x v="35"/>
+            <x v="41"/>
+            <x v="58"/>
+            <x v="106"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2984FCC-7E6A-411E-9CF8-EB9DF57CFAE2}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="24">
+        <item x="18"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Rating" fld="5" subtotal="average" baseField="8" baseItem="0"/>
+    <dataField name="Count of Review" fld="4" subtotal="count" baseField="8" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable10" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
@@ -31872,7 +32594,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
       <items count="24">
         <item x="18"/>
@@ -31961,31 +32683,27 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="5" hier="-1"/>
   </pageFields>
-  <dataFields count="3">
-    <dataField name="Average of Review" fld="4" subtotal="average" baseField="3" baseItem="2"/>
+  <dataFields count="2">
     <dataField name="Average of Rating" fld="5" subtotal="average" baseField="3" baseItem="4"/>
     <dataField name="Average of Discount" fld="3" subtotal="average" baseField="3" baseItem="2"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="53">
+  <formats count="3">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="3" count="10">
             <x v="2"/>
@@ -32002,44 +32720,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="15">
       <pivotArea field="3" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="3" count="13">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="50">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
           </reference>
           <reference field="3" count="10">
             <x v="2"/>
@@ -32070,7 +32764,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable11" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -32166,7 +32860,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable12" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -32299,7 +32993,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable13" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -32470,7 +33164,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable14" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -32594,7 +33288,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable15" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -32672,7 +33366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable16" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -32920,7 +33614,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable17" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -33549,7 +34243,7 @@
   <dimension ref="A3:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33598,7 +34292,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33612,7 +34306,7 @@
         <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -33805,7 +34499,7 @@
         <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33875,7 +34569,7 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33894,7 +34588,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="11">
         <v>8</v>
@@ -33902,7 +34596,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="11">
         <v>42</v>
@@ -33910,7 +34604,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="11">
         <v>59</v>
@@ -33938,12 +34632,1695 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685C670-379C-44ED-8BA6-D893FB913E6A}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A3:E113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="95.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="16">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="16">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="16">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="16">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="11">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="11">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="11">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="11">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="11">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="11">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="11">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="11">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="22">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="22">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="11">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="11">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="11">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="11">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="11">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="11">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="11">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="11">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="11">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="11">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="11">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="11">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="11">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="11">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="11">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="11">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="11">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="11">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="11">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="11">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="11">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="11">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="11">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="11">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="11">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="11">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="11">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="11">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="11">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="11">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" s="11">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="11">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="11">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="11">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="11">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="11">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="11">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="11">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="11">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="11">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="11">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="11">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="11">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" s="11">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="11">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" s="11">
+        <v>0</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="11">
+        <v>0</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="11">
+        <v>0</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" s="11">
+        <v>0</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="11">
+        <v>0</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="11">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>82</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="11">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="11">
+        <v>221.70000000000002</v>
+      </c>
+      <c r="D113" t="s">
+        <v>122</v>
+      </c>
+      <c r="E113">
+        <v>221.70000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D3:E113" xr:uid="{03BE3E1D-1A8E-4E30-A3ED-A44779F5AA9D}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+        <filter val="2.1"/>
+        <filter val="2.2"/>
+        <filter val="2.3"/>
+        <filter val="2.5"/>
+        <filter val="2.6"/>
+        <filter val="2.7"/>
+        <filter val="2.8"/>
+        <filter val="2.9"/>
+        <filter val="221.7"/>
+        <filter val="3"/>
+        <filter val="3.3"/>
+        <filter val="3.8"/>
+        <filter val="4"/>
+        <filter val="4.1"/>
+        <filter val="4.2"/>
+        <filter val="4.3"/>
+        <filter val="4.4"/>
+        <filter val="4.5"/>
+        <filter val="4.6"/>
+        <filter val="4.7"/>
+        <filter val="4.8"/>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="D4:E113">
+      <sortCondition ref="E3"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4580D5-7DB1-4C9D-A663-EE492CE562D9}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3.6133333333333328</v>
+      </c>
+      <c r="C4" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3.7249999999999996</v>
+      </c>
+      <c r="C5" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3.6264705882352937</v>
+      </c>
+      <c r="C6" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33990,7 +36367,7 @@
         <v>117</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -34715,19 +37092,21 @@
         <v>114</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="0"/>
+        <f>C21-B21</f>
         <v>24</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F21="Not Provided","N/A",IF(F21&lt;3,"Poor Rating",IF(F21&lt;=4.4,"Average Rating",IF(F21&gt;=4.5,"Excellent Rating"))))</f>
         <v>N/A</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(D21&lt;20%,"Low Discount",IF(D21&lt;=40%,"Medium Discount","High Discount"))</f>
         <v>Low Discount</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B21&lt;800,"Low Priced Product",
+IF(B21&lt;2500,"Medium Priced Product",
+IF(B21&gt;=2500,"High Value Product")))</f>
         <v>Medium Priced Product</v>
       </c>
       <c r="K21" s="2"/>
@@ -38002,29 +40381,28 @@
       </c>
       <c r="K110" s="2"/>
     </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+    </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F110" xr:uid="{00000000-0009-0000-0000-00000D000000}">
-    <sortState ref="A2:F110">
-      <sortCondition descending="1" ref="B1:B110"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:N110" xr:uid="{CBBE6CEE-8043-434E-98E5-EF929ECB48CF}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
@@ -38047,193 +40425,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="14">
-        <v>15</v>
-      </c>
-      <c r="C4" s="14">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>8.8449848024316116E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B5" s="14">
-        <v>6</v>
-      </c>
-      <c r="C5" s="14">
         <v>2.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="14">
-        <v>7.5</v>
-      </c>
-      <c r="C6" s="14">
         <v>4.375</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1">
         <v>0.19447117451591198</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="14">
-        <v>22.8</v>
-      </c>
-      <c r="C7" s="14">
         <v>4.26</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
         <v>0.23846027301055508</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="14">
-        <v>19.25</v>
-      </c>
-      <c r="C8" s="14">
         <v>4.0749999999999993</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C8" s="1">
         <v>0.28024038840792242</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B9" s="14">
-        <v>18.571428571428573</v>
-      </c>
-      <c r="C9" s="14">
         <v>4.3571428571428568</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C9" s="1">
         <v>0.33770751008483491</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B10" s="14">
-        <v>8.8333333333333339</v>
-      </c>
-      <c r="C10" s="14">
         <v>4.25</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C10" s="1">
         <v>0.38563510259595429</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="14">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14">
         <v>3.3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="1">
         <v>0.44475868492513715</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B12" s="14">
-        <v>14.5</v>
-      </c>
-      <c r="C12" s="14">
         <v>3.6</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
         <v>0.48427759898721306</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B13" s="14">
-        <v>8.4444444444444446</v>
-      </c>
-      <c r="C13" s="14">
         <v>3.8333333333333335</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1">
         <v>0.53086348434951214</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B14" s="11">
-        <v>12.684210526315789</v>
-      </c>
-      <c r="C14" s="11">
         <v>3.8894736842105266</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1">
         <v>0.38836022240939055</v>
       </c>
     </row>
@@ -38908,7 +41249,7 @@
         <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -38916,7 +41257,7 @@
         <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -39018,7 +41359,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jumia-workings-analysis.xlsx
+++ b/Jumia-workings-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Data analytics\Jumia-Product-Performance-Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C81BEE9-3A53-463E-831E-A38E3BCA8ECC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC0512A-5F5C-4528-8577-632292D057DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="1000" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="1000" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Average" sheetId="10" r:id="rId1"/>
@@ -34636,7 +34636,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A3:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
@@ -36246,8 +36246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4580D5-7DB1-4C9D-A663-EE492CE562D9}">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jumia-workings-analysis.xlsx
+++ b/Jumia-workings-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Data analytics\Jumia-Product-Performance-Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC0512A-5F5C-4528-8577-632292D057DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB0A7B-03C3-4461-AC85-D7516E595DC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="1000" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36247,7 +36247,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
